--- a/main/CodeSystem-ConsentPolicyPurposeCS.xlsx
+++ b/main/CodeSystem-ConsentPolicyPurposeCS.xlsx
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Unabhängige Treuhandstelle der Universitätsmedizin Greifswald</t>
+    <t>Independent Trusted Third Party of the University Medicine Greifswald</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Unabhängige Treuhandstelle der Universitätsmedizin Greifswald (https://www.ths-greifswald.de/)</t>
+    <t>Independent Trusted Third Party of the University Medicine Greifswald (https://www.ths-greifswald.de/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
